--- a/Assets/06.Table/FallCollection.xlsx
+++ b/Assets/06.Table/FallCollection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A76649E-E1DC-4150-9CFB-ED4B1D42ABBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C44134-ACF7-4E81-9905-0A1BE8483699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,27 +103,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ex_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>천계꽃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ex_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>불멸석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ec_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ec_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ec_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ec_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수미꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영혼석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I16" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -806,14 +818,8 @@
       <c r="F16">
         <v>500000</v>
       </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -830,7 +836,7 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -847,7 +853,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -864,7 +870,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -881,7 +887,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -898,7 +904,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -915,7 +921,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -934,14 +940,8 @@
       <c r="F23">
         <v>500000</v>
       </c>
-      <c r="G23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -958,7 +958,7 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -975,7 +975,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -992,7 +992,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1068,25 +1068,19 @@
         <v>73</v>
       </c>
       <c r="C31">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F31">
         <v>500000</v>
       </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1145,22 +1139,117 @@
         <v>88</v>
       </c>
       <c r="C35">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F35">
         <v>500000</v>
       </c>
       <c r="G35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>1291</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>9001</v>
+      </c>
+      <c r="C37">
+        <v>500</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37">
+        <v>500000</v>
+      </c>
+      <c r="G37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>9008</v>
+      </c>
+      <c r="C38">
+        <v>500</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38">
+        <v>500000</v>
+      </c>
+      <c r="G38" t="s">
         <v>21</v>
       </c>
-      <c r="H35">
-        <v>100</v>
+      <c r="H38">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>9010</v>
+      </c>
+      <c r="C39">
+        <v>1500</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39">
+        <v>500000</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FallCollection.xlsx
+++ b/Assets/06.Table/FallCollection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C44134-ACF7-4E81-9905-0A1BE8483699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED9041D-48EB-471C-9C46-EDB1FE097E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,50 @@
   </si>
   <si>
     <t>영혼석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕자 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀족 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀족 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한가위 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천사 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천사 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강시 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강시 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여포 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은토끼 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현무호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I16" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1252,6 +1296,193 @@
         <v>300</v>
       </c>
     </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1246</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1250</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>1251</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1253</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>1255</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1256</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>1263</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>1264</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>1270</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>1277</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>1284</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50">
+        <v>7000000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/FallCollection.xlsx
+++ b/Assets/06.Table/FallCollection.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED9041D-48EB-471C-9C46-EDB1FE097E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B046913A-D378-418F-941F-07A12084ACE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FallCollection" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FallCollection!$A$1:$I$53</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,14 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>새외형1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새외형2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>옥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>불멸석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ec_0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,6 +171,134 @@
   </si>
   <si>
     <t>현무호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법사호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악마호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악마호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈귀신호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈귀신호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴마사호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벚꽃호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장군호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치파오호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이무기호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이무기호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선녀호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나비호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병아리호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견우호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직녀호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바다호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마교호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마교호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공주호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단풍호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머슴호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주작호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백호호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린이호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수박외형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한복호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한복호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ec_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,21 +663,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -575,246 +695,330 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1207</v>
+        <v>9016</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="F2">
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>500000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>300</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1208</v>
+        <v>9010</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2500</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>500000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>300</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>9008</v>
       </c>
       <c r="C4">
-        <v>5000000</v>
+        <v>600</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>500000</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>300</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>9001</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>700</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <v>500000</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>500</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="C6">
-        <v>600000</v>
+        <v>800</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>500000</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6">
+        <v>500</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>1500</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7">
         <v>500000</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1209</v>
+        <v>30</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>500000</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1210</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>500000</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1211</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
       </c>
       <c r="F10">
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>500000</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1212</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>600000</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>500000</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1215</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>500000</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>150</v>
+        <v>5000000</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F13">
         <v>500000</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1214</v>
+        <v>1436</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -822,16 +1026,22 @@
       <c r="D14">
         <v>1</v>
       </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
       <c r="F14">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1216</v>
+        <v>1409</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -839,36 +1049,45 @@
       <c r="D15">
         <v>1</v>
       </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
       <c r="F15">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30</v>
+        <v>1400</v>
       </c>
       <c r="C16">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="F16">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7000000</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1226</v>
+        <v>1292</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -876,16 +1095,22 @@
       <c r="D17">
         <v>1</v>
       </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
       <c r="F17">
-        <v>9000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7000000</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1219</v>
+        <v>1291</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -893,104 +1118,122 @@
       <c r="D18">
         <v>1</v>
       </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
       <c r="F18">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1223</v>
+        <v>1284</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19">
-        <v>1</v>
+      <c r="E19" t="s">
+        <v>33</v>
       </c>
       <c r="F19">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1224</v>
+        <v>1277</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20">
-        <v>1</v>
+      <c r="E20" t="s">
+        <v>32</v>
       </c>
       <c r="F20">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1225</v>
+        <v>1270</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21">
-        <v>1</v>
+      <c r="E21" t="s">
+        <v>31</v>
       </c>
       <c r="F21">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1229</v>
+        <v>1264</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22">
-        <v>1</v>
+      <c r="E22" t="s">
+        <v>30</v>
       </c>
       <c r="F22">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>46</v>
+        <v>1263</v>
       </c>
       <c r="C23">
-        <v>1500</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F23">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7000000</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1235</v>
+        <v>1262</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -998,101 +1241,122 @@
       <c r="D24">
         <v>1</v>
       </c>
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
       <c r="F24">
-        <v>9000000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7000000</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1230</v>
+        <v>1256</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25">
-        <v>1</v>
+      <c r="E25" t="s">
+        <v>28</v>
       </c>
       <c r="F25">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1233</v>
+        <v>1255</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26">
-        <v>1</v>
+      <c r="E26" t="s">
+        <v>27</v>
       </c>
       <c r="F26">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1234</v>
+        <v>1253</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27">
-        <v>1</v>
+      <c r="E27" t="s">
+        <v>26</v>
       </c>
       <c r="F27">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1238</v>
+        <v>1251</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28">
-        <v>1</v>
+      <c r="E28" t="s">
+        <v>25</v>
       </c>
       <c r="F28">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1239</v>
+        <v>1250</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29">
-        <v>1</v>
+      <c r="E29" t="s">
+        <v>24</v>
       </c>
       <c r="F29">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1100,36 +1364,42 @@
       <c r="D30">
         <v>1</v>
       </c>
+      <c r="E30" t="s">
+        <v>55</v>
+      </c>
       <c r="F30">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>73</v>
+        <v>1246</v>
       </c>
       <c r="C31">
-        <v>600</v>
-      </c>
-      <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F31">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7000000</v>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1232</v>
+        <v>1239</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1137,16 +1407,22 @@
       <c r="D32">
         <v>1</v>
       </c>
+      <c r="E32" t="s">
+        <v>54</v>
+      </c>
       <c r="F32">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1247</v>
+        <v>1238</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1154,16 +1430,22 @@
       <c r="D33">
         <v>1</v>
       </c>
+      <c r="E33" t="s">
+        <v>53</v>
+      </c>
       <c r="F33">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1262</v>
+        <v>1235</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1171,42 +1453,45 @@
       <c r="D34">
         <v>1</v>
       </c>
+      <c r="E34" t="s">
+        <v>52</v>
+      </c>
       <c r="F34">
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9000000</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>88</v>
+        <v>1234</v>
       </c>
       <c r="C35">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="F35">
-        <v>500000</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7000000</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1291</v>
+        <v>1233</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1214,266 +1499,326 @@
       <c r="D36">
         <v>1</v>
       </c>
+      <c r="E36" t="s">
+        <v>50</v>
+      </c>
       <c r="F36">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>9001</v>
+        <v>1232</v>
       </c>
       <c r="C37">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="F37">
-        <v>500000</v>
-      </c>
-      <c r="G37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7000000</v>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>9008</v>
+        <v>1230</v>
       </c>
       <c r="C38">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F38">
-        <v>500000</v>
-      </c>
-      <c r="G38" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7000000</v>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>9010</v>
+        <v>1229</v>
       </c>
       <c r="C39">
-        <v>1500</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="F39">
-        <v>500000</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7000000</v>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1246</v>
+        <v>1226</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
       <c r="E40" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F40">
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9000000</v>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1250</v>
+        <v>1225</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
       <c r="E41" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F41">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1251</v>
+        <v>1224</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
       <c r="E42" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F42">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1253</v>
+        <v>1223</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F43">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1255</v>
+        <v>1219</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F44">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1256</v>
+        <v>1216</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F45">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1263</v>
+        <v>1215</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F46">
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5000000</v>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1264</v>
+        <v>1214</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F47">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1270</v>
+        <v>1212</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F48">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1277</v>
+        <v>1211</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F49">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1284</v>
+        <v>1210</v>
       </c>
       <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
@@ -1482,8 +1827,85 @@
       <c r="F50">
         <v>7000000</v>
       </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>1209</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51">
+        <v>7000000</v>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>1208</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52">
+        <v>7000000</v>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>1207</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53">
+        <v>7000000</v>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I53" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I53">
+      <sortCondition descending="1" ref="B1:B53"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
